--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1033233333333333</v>
+        <v>0.142342</v>
       </c>
       <c r="N2">
-        <v>0.30997</v>
+        <v>0.427026</v>
       </c>
       <c r="O2">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="P2">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="Q2">
-        <v>20.19303584277666</v>
+        <v>28.11871841998733</v>
       </c>
       <c r="R2">
-        <v>181.73732258499</v>
+        <v>253.068465779886</v>
       </c>
       <c r="S2">
-        <v>0.03576945112492104</v>
+        <v>0.03090052785856125</v>
       </c>
       <c r="T2">
-        <v>0.03576945112492104</v>
+        <v>0.03090052785856124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5898753333333333</v>
+        <v>0.5898753333333334</v>
       </c>
       <c r="N3">
         <v>1.769626</v>
       </c>
       <c r="O3">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="P3">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="Q3">
-        <v>115.2825152315046</v>
+        <v>116.5259614231651</v>
       </c>
       <c r="R3">
-        <v>1037.542637083542</v>
+        <v>1048.733652808486</v>
       </c>
       <c r="S3">
-        <v>0.2042086354046828</v>
+        <v>0.1280539768356829</v>
       </c>
       <c r="T3">
-        <v>0.2042086354046828</v>
+        <v>0.1280539768356828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2010346666666667</v>
+        <v>0.8287749999999999</v>
       </c>
       <c r="N4">
-        <v>0.603104</v>
+        <v>2.486325</v>
       </c>
       <c r="O4">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="P4">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="Q4">
-        <v>39.28928828248533</v>
+        <v>163.7190067480083</v>
       </c>
       <c r="R4">
-        <v>353.6035945423679</v>
+        <v>1473.471060732075</v>
       </c>
       <c r="S4">
-        <v>0.06959608688338995</v>
+        <v>0.1799158714643542</v>
       </c>
       <c r="T4">
-        <v>0.06959608688338995</v>
+        <v>0.1799158714643541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1033233333333333</v>
+        <v>0.142342</v>
       </c>
       <c r="N5">
-        <v>0.30997</v>
+        <v>0.427026</v>
       </c>
       <c r="O5">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="P5">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="Q5">
-        <v>8.248017836362221</v>
+        <v>11.36277079907867</v>
       </c>
       <c r="R5">
-        <v>74.23216052725999</v>
+        <v>102.264937191708</v>
       </c>
       <c r="S5">
-        <v>0.01461033760214766</v>
+        <v>0.01248689966530611</v>
       </c>
       <c r="T5">
-        <v>0.01461033760214767</v>
+        <v>0.01248689966530611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5898753333333333</v>
+        <v>0.5898753333333334</v>
       </c>
       <c r="N6">
         <v>1.769626</v>
       </c>
       <c r="O6">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="P6">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="Q6">
-        <v>47.08812727583422</v>
+        <v>47.08812727583423</v>
       </c>
       <c r="R6">
         <v>423.793145482508</v>
       </c>
       <c r="S6">
-        <v>0.08341076003980438</v>
+        <v>0.05174659694519068</v>
       </c>
       <c r="T6">
-        <v>0.0834107600398044</v>
+        <v>0.05174659694519067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2010346666666667</v>
+        <v>0.8287749999999999</v>
       </c>
       <c r="N7">
-        <v>0.603104</v>
+        <v>2.486325</v>
       </c>
       <c r="O7">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="P7">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="Q7">
-        <v>16.04804513075911</v>
+        <v>66.15883132881666</v>
       </c>
       <c r="R7">
-        <v>144.432406176832</v>
+        <v>595.4294819593499</v>
       </c>
       <c r="S7">
-        <v>0.02842711568605241</v>
+        <v>0.07270398245151868</v>
       </c>
       <c r="T7">
-        <v>0.02842711568605242</v>
+        <v>0.07270398245151867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H8">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I8">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J8">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1033233333333333</v>
+        <v>0.142342</v>
       </c>
       <c r="N8">
-        <v>0.30997</v>
+        <v>0.427026</v>
       </c>
       <c r="O8">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="P8">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="Q8">
-        <v>16.79124617564555</v>
+        <v>21.183965164614</v>
       </c>
       <c r="R8">
-        <v>151.12121558081</v>
+        <v>190.655686481526</v>
       </c>
       <c r="S8">
-        <v>0.02974360388812557</v>
+        <v>0.02327971339044551</v>
       </c>
       <c r="T8">
-        <v>0.02974360388812557</v>
+        <v>0.02327971339044551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H9">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I9">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J9">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5898753333333333</v>
+        <v>0.5898753333333334</v>
       </c>
       <c r="N9">
         <v>1.769626</v>
       </c>
       <c r="O9">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="P9">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="Q9">
-        <v>95.86161823667756</v>
+        <v>87.78785258601403</v>
       </c>
       <c r="R9">
-        <v>862.7545641300981</v>
+        <v>790.0906732741261</v>
       </c>
       <c r="S9">
-        <v>0.1698069322003036</v>
+        <v>0.0964727817235497</v>
       </c>
       <c r="T9">
-        <v>0.1698069322003036</v>
+        <v>0.0964727817235497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H10">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2010346666666667</v>
+        <v>0.8287749999999999</v>
       </c>
       <c r="N10">
-        <v>0.603104</v>
+        <v>2.486325</v>
       </c>
       <c r="O10">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="P10">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="Q10">
-        <v>32.67047692846578</v>
+        <v>123.341956199175</v>
       </c>
       <c r="R10">
-        <v>294.034292356192</v>
+        <v>1110.077605792575</v>
       </c>
       <c r="S10">
-        <v>0.05787168590297153</v>
+        <v>0.1355442839440677</v>
       </c>
       <c r="T10">
-        <v>0.05787168590297154</v>
+        <v>0.1355442839440677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H11">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I11">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J11">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1033233333333333</v>
+        <v>0.142342</v>
       </c>
       <c r="N11">
-        <v>0.30997</v>
+        <v>0.427026</v>
       </c>
       <c r="O11">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="P11">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="Q11">
-        <v>3.485982409768889</v>
+        <v>5.042729109726</v>
       </c>
       <c r="R11">
-        <v>31.37384168792</v>
+        <v>45.384561987534</v>
       </c>
       <c r="S11">
-        <v>0.006174984207397758</v>
+        <v>0.005541610716778046</v>
       </c>
       <c r="T11">
-        <v>0.006174984207397757</v>
+        <v>0.005541610716778046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H12">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I12">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J12">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5898753333333333</v>
+        <v>0.5898753333333334</v>
       </c>
       <c r="N12">
         <v>1.769626</v>
       </c>
       <c r="O12">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="P12">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="Q12">
-        <v>19.90155533719289</v>
+        <v>20.897426722326</v>
       </c>
       <c r="R12">
-        <v>179.113998034736</v>
+        <v>188.076840500934</v>
       </c>
       <c r="S12">
-        <v>0.03525312966738867</v>
+        <v>0.02296482744912269</v>
       </c>
       <c r="T12">
-        <v>0.03525312966738867</v>
+        <v>0.02296482744912269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H13">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I13">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J13">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2010346666666667</v>
+        <v>0.8287749999999999</v>
       </c>
       <c r="N13">
-        <v>0.603104</v>
+        <v>2.486325</v>
       </c>
       <c r="O13">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="P13">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="Q13">
-        <v>6.782623916060446</v>
+        <v>29.360890095075</v>
       </c>
       <c r="R13">
-        <v>61.04361524454401</v>
+        <v>264.248010855675</v>
       </c>
       <c r="S13">
-        <v>0.01201457455695202</v>
+        <v>0.03226558866531119</v>
       </c>
       <c r="T13">
-        <v>0.01201457455695202</v>
+        <v>0.03226558866531119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H14">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I14">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J14">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1033233333333333</v>
+        <v>0.142342</v>
       </c>
       <c r="N14">
-        <v>0.30997</v>
+        <v>0.427026</v>
       </c>
       <c r="O14">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="P14">
-        <v>0.1155440414507772</v>
+        <v>0.09118686681570291</v>
       </c>
       <c r="Q14">
-        <v>16.51014302736444</v>
+        <v>17.26961686417733</v>
       </c>
       <c r="R14">
-        <v>148.59128724628</v>
+        <v>155.426551777596</v>
       </c>
       <c r="S14">
-        <v>0.02924566462818515</v>
+        <v>0.01897811518461201</v>
       </c>
       <c r="T14">
-        <v>0.02924566462818515</v>
+        <v>0.018978115184612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H15">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I15">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J15">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.5898753333333333</v>
+        <v>0.5898753333333334</v>
       </c>
       <c r="N15">
         <v>1.769626</v>
       </c>
       <c r="O15">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="P15">
-        <v>0.6596436425988742</v>
+        <v>0.377884836931721</v>
       </c>
       <c r="Q15">
-        <v>94.25679377018044</v>
+        <v>71.56651588635512</v>
       </c>
       <c r="R15">
-        <v>848.311143931624</v>
+        <v>644.0986429771961</v>
       </c>
       <c r="S15">
-        <v>0.1669641852866947</v>
+        <v>0.07864665397817512</v>
       </c>
       <c r="T15">
-        <v>0.1669641852866948</v>
+        <v>0.07864665397817511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H16">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I16">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J16">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2010346666666667</v>
+        <v>0.8287749999999999</v>
       </c>
       <c r="N16">
-        <v>0.603104</v>
+        <v>2.486325</v>
       </c>
       <c r="O16">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="P16">
-        <v>0.2248123159503485</v>
+        <v>0.5309282962525761</v>
       </c>
       <c r="Q16">
-        <v>32.12353873076622</v>
+        <v>100.5509738278833</v>
       </c>
       <c r="R16">
-        <v>289.111848576896</v>
+        <v>904.95876445095</v>
       </c>
       <c r="S16">
-        <v>0.0569028529209826</v>
+        <v>0.1104985697273244</v>
       </c>
       <c r="T16">
-        <v>0.05690285292098261</v>
+        <v>0.1104985697273244</v>
       </c>
     </row>
   </sheetData>
